--- a/medicine/Psychotrope/Castel_Beer/Castel_Beer.xlsx
+++ b/medicine/Psychotrope/Castel_Beer/Castel_Beer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Castel Beer est une bière blonde africaine actuellement produite au Cameroun par les brasseries du Cameroun, au Tchad par les brasseries du Tchad, en République centrafricaine par la brasserie MOCAF et au Maroc. Castel Beer fut pour la première fois fabriquée au Gabon dans les années 1950. Elle est consommée dans la plupart des pays d'Afrique francophone et titre 5,2° d'alcool.
 Elle tire son nom du groupe Castel.
